--- a/005_画面/画面遷移図.xlsx
+++ b/005_画面/画面遷移図.xlsx
@@ -173,13 +173,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>11207</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -190,8 +190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2667001" y="457200"/>
-          <a:ext cx="1333499" cy="609600"/>
+          <a:off x="2678207" y="470647"/>
+          <a:ext cx="2398058" cy="627529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -222,6 +222,48 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>マスタメンテ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　ユーザマスタメンテだけで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　部署や分類は直データ編集でいいかも</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -231,15 +273,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>22413</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -248,8 +290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2667001" y="1568824"/>
-          <a:ext cx="1333499" cy="627529"/>
+          <a:off x="2689413" y="1669677"/>
+          <a:ext cx="1994646" cy="627529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -280,6 +322,34 @@
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>イベント一覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　回答、参照、削除ができる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　編集は無し（再登録して）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
@@ -298,8 +368,8 @@
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
@@ -311,7 +381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2678207" y="3597088"/>
-          <a:ext cx="1333499" cy="627530"/>
+          <a:ext cx="2028264" cy="627530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -350,15 +420,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>188260</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -368,7 +438,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5903260" y="1554815"/>
+          <a:off x="7001436" y="2809873"/>
           <a:ext cx="1333499" cy="627530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -399,7 +469,7 @@
               <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>イベント更新</a:t>
+            <a:t>イベント参照</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -408,16 +478,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>186579</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>164167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>186578</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>164166</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -426,7 +496,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5901579" y="2783542"/>
+          <a:off x="7022167" y="699248"/>
           <a:ext cx="1333499" cy="627529"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -473,7 +543,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>11207</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -487,8 +557,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="762000"/>
-          <a:ext cx="1143001" cy="0"/>
+          <a:off x="1524000" y="784412"/>
+          <a:ext cx="1154207" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -569,9 +639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>22413</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -583,8 +653,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="762000"/>
-          <a:ext cx="1143001" cy="1066800"/>
+          <a:off x="1524000" y="784412"/>
+          <a:ext cx="1165413" cy="1199030"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -609,16 +679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>188260</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -629,12 +699,14 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4000500" y="1868580"/>
-          <a:ext cx="1902760" cy="14009"/>
+        <a:xfrm>
+          <a:off x="4684059" y="1983442"/>
+          <a:ext cx="2317377" cy="1140196"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -656,16 +728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>186579</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>164167</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -676,9 +748,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="1882589"/>
-          <a:ext cx="1901079" cy="1214718"/>
+        <a:xfrm flipV="1">
+          <a:off x="4684059" y="1013013"/>
+          <a:ext cx="2338108" cy="970429"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -703,16 +775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>184336</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15127</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49865</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -721,7 +793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3422836" y="2525245"/>
+          <a:off x="3859865" y="2480422"/>
           <a:ext cx="1227605" cy="444313"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -781,16 +853,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>184336</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49865</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>80401</xdr:rowOff>
+      <xdr:rowOff>35578</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -802,8 +874,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3102769" y="2427334"/>
-          <a:ext cx="551049" cy="89085"/>
+          <a:off x="3570614" y="2413327"/>
+          <a:ext cx="405373" cy="173129"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -824,189 +896,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50426</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>128868</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="カギ線コネクタ 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="32" idx="1"/>
-          <a:endCxn id="32" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="2700618" y="2089897"/>
-          <a:ext cx="285750" cy="140073"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -80000"/>
-            <a:gd name="adj2" fmla="val 263201"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2700618" y="1949824"/>
-          <a:ext cx="571499" cy="280147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="36000" tIns="0" rIns="36000" bIns="0" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>135030</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>111499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="フローチャート : 代替処理 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2230530" y="2307852"/>
-          <a:ext cx="626971" cy="303119"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartAlternateProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln cmpd="sng"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36000" tIns="0" rIns="36000" bIns="0" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>改ページ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:latin typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1328,7 +1217,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1339,7 +1228,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
